--- a/pred_ohlcv/54_21/2019-10-19 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 XEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-117147.88679127</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-114891.97429127</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-119707.49969127</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-110431.03529127</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-113426.51509127</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-118242.04049127</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-114504.65209127</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-426424.75947399</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-426424.75947399</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-419702.75947399</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-417795.75947399</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-407795.75947399</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-407795.75947399</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-405963.59677399</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-405963.59677399</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-406962.22587399</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-396962.22587399</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-405090.29157399</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-405090.29157399</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-415090.29157399</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 XEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-117147.88679127</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-119707.49969127</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-110431.03529127</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-113426.51509127</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-118242.04049127</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-114504.65209127</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-441415.93237399</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-340146.76867399</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-426424.75947399</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-426424.75947399</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-419702.75947399</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-417795.75947399</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-407795.75947399</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-405963.59677399</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-405963.59677399</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-415090.29157399</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
